--- a/database/b2b_Ticketing_tables_20240709.xlsx
+++ b/database/b2b_Ticketing_tables_20240709.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y.POLYCHRONOPOULOS\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://windsa-my.sharepoint.com/personal/y_polychronopoulos_nova_gr/Documents/GitHub/b2b_tickets/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD82EED-E3AD-48F4-A99E-2EA4932F8ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="13_ncr:1_{2AD82EED-E3AD-48F4-A99E-2EA4932F8ECF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB6B2A45-9365-4E93-AC40-5631748FEDCA}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A84B0C02-5A58-4E07-8E4F-0E0B2DB89D01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A84B0C02-5A58-4E07-8E4F-0E0B2DB89D01}"/>
   </bookViews>
   <sheets>
     <sheet name="Tables" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="212">
   <si>
     <t>USERS</t>
   </si>
@@ -628,20 +628,81 @@
     <t>fk index</t>
   </si>
   <si>
-    <t>UPPER(STATUS_NAME)</t>
+    <t>SERVICE_TYPES</t>
+  </si>
+  <si>
+    <t>SRT</t>
+  </si>
+  <si>
+    <t>SERVICES_SQ</t>
+  </si>
+  <si>
+    <t>START_DATE</t>
+  </si>
+  <si>
+    <t>END_DATE</t>
+  </si>
+  <si>
+    <t>UPPER(SERVICE_NAME)</t>
+  </si>
+  <si>
+    <t>TCK_CAT_FK</t>
+  </si>
+  <si>
+    <t>TCK_CAT_FKI</t>
+  </si>
+  <si>
+    <t>TCK_SRT_FK</t>
+  </si>
+  <si>
+    <t>TCK_SRT_FKI</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>CLI</t>
+  </si>
+  <si>
+    <t>CONTACT_PERSON</t>
+  </si>
+  <si>
+    <t>VARCHAR(200)</t>
+  </si>
+  <si>
+    <t>CONTACT_PHONE_NUMBER</t>
+  </si>
+  <si>
+    <t>OCCURRENCE_DATE</t>
+  </si>
+  <si>
+    <t>User entry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="161"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -804,27 +865,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -833,22 +894,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -857,11 +918,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -879,23 +940,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1231,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26DBBE66-26F4-49C7-BC86-64221A23A362}">
-  <dimension ref="B2:O67"/>
+  <dimension ref="B2:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58:H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,16 +1372,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="30"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="15"/>
       <c r="K2" s="20" t="s">
         <v>96</v>
@@ -1394,17 +1508,17 @@
       <c r="J7" s="8"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="48"/>
       <c r="K9" s="20" t="s">
         <v>96</v>
       </c>
@@ -1687,17 +1801,17 @@
       <c r="J22" s="3"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="48"/>
       <c r="K24" s="20" t="s">
         <v>96</v>
       </c>
@@ -1769,8 +1883,8 @@
       <c r="H27" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="I27" s="33" t="s">
-        <v>193</v>
+      <c r="I27" s="29">
+        <v>7</v>
       </c>
       <c r="J27" s="3"/>
     </row>
@@ -1781,7 +1895,7 @@
       <c r="C28" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="11"/>
@@ -1802,7 +1916,7 @@
       <c r="C29" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" s="28" t="s">
         <v>25</v>
       </c>
       <c r="E29" s="11"/>
@@ -1832,16 +1946,16 @@
       <c r="J30" s="3"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="30"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="48"/>
       <c r="J32" s="20" t="s">
         <v>96</v>
       </c>
@@ -1959,233 +2073,217 @@
       </c>
       <c r="I37" s="8"/>
     </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="32"/>
+    </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="28" t="s">
+      <c r="B39" s="49" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
+      <c r="G39" s="50"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="K40" s="38" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="40"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E42" s="28"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="29" t="s">
+        <v>198</v>
+      </c>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="I45" s="29"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="32"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="30"/>
-      <c r="J39" s="20" t="s">
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="K39" s="21" t="s">
+      <c r="K48" s="21" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F49" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G49" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="17" t="s">
+      <c r="H49" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I49" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J40" s="14" t="s">
+      <c r="J49" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="K40" s="22" t="s">
+      <c r="K49" s="22" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="I42" s="8"/>
-      <c r="N42" t="s">
-        <v>176</v>
-      </c>
-      <c r="O42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="11"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="11"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" s="11"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="8" t="s">
-        <v>41</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>5</v>
@@ -2193,27 +2291,17 @@
       <c r="D50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E50" s="11"/>
-      <c r="F50" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="18" t="s">
-        <v>83</v>
-      </c>
+      <c r="E50" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="18"/>
       <c r="I50" s="8"/>
-      <c r="N50" t="s">
-        <v>177</v>
-      </c>
-      <c r="O50" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>5</v>
@@ -2223,28 +2311,28 @@
       </c>
       <c r="E51" s="11"/>
       <c r="F51" s="8" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="I51" s="8"/>
       <c r="N51" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O51" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15" ht="30" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>25</v>
@@ -2253,258 +2341,246 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I52" s="8"/>
+        <v>111</v>
+      </c>
+      <c r="I52" s="8" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>25</v>
       </c>
       <c r="E53" s="11"/>
-      <c r="F53" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="18" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="I53" s="8"/>
-      <c r="N53" t="s">
-        <v>178</v>
-      </c>
-      <c r="O53" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" s="11"/>
+        <v>20</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E54" s="11"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="18" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="I54" s="8"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="11"/>
+      <c r="D55" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="E55" s="11"/>
-      <c r="F55" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>1</v>
+      <c r="F55" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="I55" s="8"/>
-      <c r="N55" t="s">
-        <v>179</v>
-      </c>
-      <c r="O55" t="s">
-        <v>189</v>
+      <c r="N55" s="41" t="s">
+        <v>199</v>
+      </c>
+      <c r="O55" s="41" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="I56" s="8"/>
+      <c r="B56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="28"/>
+      <c r="F56" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="G56" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I56" s="29"/>
+      <c r="N56" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="O56" s="41" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B57" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C57" s="9"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="5" t="s">
-        <v>31</v>
+      <c r="B57" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="11"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="18" t="s">
+        <v>81</v>
       </c>
       <c r="I57" s="8"/>
     </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I58" s="8"/>
+    </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
+      <c r="B59" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
       <c r="F59" s="29"/>
       <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="30"/>
-      <c r="J59" s="20" t="s">
-        <v>96</v>
-      </c>
-      <c r="K59" s="21" t="s">
-        <v>107</v>
-      </c>
+      <c r="H59" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J60" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="K60" s="22" t="s">
-        <v>108</v>
-      </c>
+      <c r="B60" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B61" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="3"/>
+      <c r="B61" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I61" s="8"/>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" s="11"/>
-      <c r="F62" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="I62" s="3"/>
-      <c r="N62" t="s">
-        <v>181</v>
-      </c>
-      <c r="O62" t="s">
-        <v>190</v>
-      </c>
+      <c r="B62" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B63" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E63" s="28"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="C64" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" s="11"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="I63" s="3"/>
-    </row>
-    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E64" s="11"/>
-      <c r="F64" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="I64" s="3"/>
-      <c r="N64" t="s">
-        <v>182</v>
-      </c>
-      <c r="O64" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D64" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="E64" s="28"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>25</v>
@@ -2513,52 +2589,387 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E66" s="11"/>
+      <c r="F66" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H66" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="I66" s="8"/>
+      <c r="N66" t="s">
+        <v>177</v>
+      </c>
+      <c r="O66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="11"/>
+      <c r="F67" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="H67" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" s="8"/>
+      <c r="N67" t="s">
+        <v>180</v>
+      </c>
+      <c r="O67" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E68" s="11"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E69" s="11"/>
+      <c r="F69" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H69" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I69" s="8"/>
+      <c r="N69" t="s">
+        <v>178</v>
+      </c>
+      <c r="O69" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H71" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I71" s="8"/>
+      <c r="N71" t="s">
+        <v>179</v>
+      </c>
+      <c r="O71" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="I72" s="8"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I73" s="8"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B75" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75" s="47"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="47"/>
+      <c r="F75" s="47"/>
+      <c r="G75" s="47"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="48"/>
+      <c r="J75" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H76" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K76" s="22" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="3"/>
+    </row>
+    <row r="78" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B78" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="11"/>
+      <c r="F78" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H78" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I78" s="3"/>
+      <c r="N78" t="s">
+        <v>181</v>
+      </c>
+      <c r="O78" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B79" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E79" s="11"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="3"/>
+    </row>
+    <row r="80" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B80" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E80" s="11"/>
+      <c r="F80" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I80" s="3"/>
+      <c r="N80" t="s">
+        <v>182</v>
+      </c>
+      <c r="O80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E81" s="11"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="I65" s="3"/>
-    </row>
-    <row r="66" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="8" t="s">
+      <c r="I81" s="3"/>
+    </row>
+    <row r="82" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B82" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E66" s="11"/>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="18" t="s">
+      <c r="D82" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E82" s="11"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I82" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B67" s="9" t="s">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="5" t="s">
+      <c r="C83" s="9"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I67" s="8"/>
+      <c r="I83" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="B59:I59"/>
+    <mergeCell ref="B48:I48"/>
+    <mergeCell ref="B75:I75"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B9:J9"/>
     <mergeCell ref="B24:J24"/>
+    <mergeCell ref="B39:I39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2585,15 +2996,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
